--- a/AS37/CollectionPerformanceTest/collectionperformance.xlsx
+++ b/AS37/CollectionPerformanceTest/collectionperformance.xlsx
@@ -2009,24 +2009,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="47478656"/>
-        <c:axId val="47480192"/>
+        <c:axId val="92623232"/>
+        <c:axId val="92624768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47478656"/>
+        <c:axId val="92623232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47480192"/>
+        <c:crossAx val="92624768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47480192"/>
+        <c:axId val="92624768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,7 +2034,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="Standard" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47478656"/>
+        <c:crossAx val="92623232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2047,8 +2047,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2454,24 +2454,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="48087040"/>
-        <c:axId val="48088960"/>
+        <c:axId val="92712960"/>
+        <c:axId val="92714496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48087040"/>
+        <c:axId val="92712960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48088960"/>
+        <c:crossAx val="92714496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48088960"/>
+        <c:axId val="92714496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2479,19 +2479,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="Standard" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48087040"/>
+        <c:crossAx val="92712960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4289,6 +4290,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
